--- a/GermanSeparablePrefixes.xlsx
+++ b/GermanSeparablePrefixes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C50694-EAC9-4758-9EE3-105A9BFFA68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{FBD5F6B6-26AD-4D8E-953A-75B43649B5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
